--- a/Artikel/Artikel.xlsx
+++ b/Artikel/Artikel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PMII\2022\Artikel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nova\PMII\2022\Artikel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E33DB3-DAB4-433D-BB88-3ABD399A0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D862C-42DF-42E2-A97B-757E2D6B5119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Nomor</t>
   </si>
@@ -58,13 +58,22 @@
   </si>
   <si>
     <t>Nova Adi Saputra</t>
+  </si>
+  <si>
+    <t>Artikel.003</t>
+  </si>
+  <si>
+    <t>15 Februari 2022</t>
+  </si>
+  <si>
+    <t>JHT Bisa Cair Di Usia 56 Tahun ? Berikut Penjelasannya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +94,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,9 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,65 +418,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>